--- a/data/trans_dic/iP16_n_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP16_n_R2-Edad-trans_dic.xlsx
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>46,88%</t>
+          <t>39,68%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>14,92%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>12,01%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>28,6%</t>
+          <t>39,49%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>43,05%</t>
+          <t>38,77%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>19,28%</t>
+          <t>19,85%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>7,82%</t>
+          <t>11,2%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>28,13%</t>
+          <t>35,35%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>45,16%</t>
+          <t>39,28%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>17,25%</t>
+          <t>13,44%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>11,59%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>28,38%</t>
+          <t>37,37%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>35,74; 58,06</t>
+          <t>29,57; 52,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,67; 26,52</t>
+          <t>3,53; 16,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,57; 24,29</t>
+          <t>5,9; 23,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,21; 39,43</t>
+          <t>27,77; 53,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>31,04; 55,68</t>
+          <t>26,2; 53,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,49; 31,64</t>
+          <t>10,98; 30,67</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,63; 19,78</t>
+          <t>5,09; 19,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,33; 38,65</t>
+          <t>25,51; 46,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>36,82; 52,86</t>
+          <t>30,33; 48,44</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10,8; 26,17</t>
+          <t>8,45; 20,48</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,91; 17,66</t>
+          <t>6,83; 17,99</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>21,44; 35,27</t>
+          <t>28,62; 45,28</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>39,68%</t>
+          <t>46,88%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>14,92%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
+          <t>13,24%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>39,49%</t>
+          <t>28,6%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>38,77%</t>
+          <t>43,05%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,85%</t>
+          <t>19,28%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>11,2%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>35,35%</t>
+          <t>28,13%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>39,28%</t>
+          <t>45,16%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>13,44%</t>
+          <t>17,25%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>11,59%</t>
+          <t>10,68%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>37,37%</t>
+          <t>28,38%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>29,57; 52,47</t>
+          <t>35,74; 58,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,53; 16,69</t>
+          <t>6,67; 26,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,9; 23,74</t>
+          <t>6,57; 24,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>27,77; 53,71</t>
+          <t>21,21; 39,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,2; 53,74</t>
+          <t>31,04; 55,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,98; 30,67</t>
+          <t>10,49; 31,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,09; 19,94</t>
+          <t>2,63; 19,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>25,51; 46,31</t>
+          <t>17,33; 38,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>30,33; 48,44</t>
+          <t>36,82; 52,86</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,45; 20,48</t>
+          <t>10,8; 26,17</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,83; 17,99</t>
+          <t>5,91; 17,66</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>28,62; 45,28</t>
+          <t>21,44; 35,27</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP16_n_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP16_n_R2-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>31,49%</t>
+          <t>28,78%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18,03%</t>
+          <t>16,65%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,21%</t>
+          <t>24,78%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>39,45%</t>
+          <t>36,22%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>33,44%</t>
+          <t>26,48%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,48%</t>
+          <t>19,63%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>17,68%</t>
+          <t>16,18%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>42,67%</t>
+          <t>52,67%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>32,48%</t>
+          <t>27,64%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>18,1%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>16,99%</t>
+          <t>20,22%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>40,81%</t>
+          <t>43,33%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,78; 43,23</t>
+          <t>16,71; 43,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,11; 27,4</t>
+          <t>7,47; 29,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,2; 26,71</t>
+          <t>11,74; 40,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>27,8; 51,36</t>
+          <t>22,48; 51,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,18; 43,58</t>
+          <t>16,24; 41,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,54; 25,76</t>
+          <t>10,47; 31,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,06; 27,84</t>
+          <t>7,05; 30,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>29,86; 57,24</t>
+          <t>34,54; 72,46</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>24,93; 40,32</t>
+          <t>19,56; 37,83</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11,56; 23,74</t>
+          <t>11,38; 26,16</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>11,17; 24,07</t>
+          <t>12,58; 31,01</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>32,18; 50,35</t>
+          <t>30,87; 54,53</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>39,68%</t>
+          <t>41,15%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>12,76%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>39,49%</t>
+          <t>42,57%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>38,77%</t>
+          <t>41,02%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>19,85%</t>
+          <t>17,16%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>11,2%</t>
+          <t>14,57%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>35,35%</t>
+          <t>29,18%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>39,28%</t>
+          <t>41,09%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>13,44%</t>
+          <t>14,72%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>11,59%</t>
+          <t>11,86%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>37,37%</t>
+          <t>35,97%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>29,57; 52,47</t>
+          <t>30,84; 52,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,53; 16,69</t>
+          <t>7,35; 21,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,9; 23,74</t>
+          <t>3,45; 19,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>27,77; 53,71</t>
+          <t>31,92; 56,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,2; 53,74</t>
+          <t>29,92; 52,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,98; 30,67</t>
+          <t>9,23; 28,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,09; 19,94</t>
+          <t>7,28; 26,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>25,51; 46,31</t>
+          <t>18,31; 41,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>30,33; 48,44</t>
+          <t>33,31; 49,1</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,45; 20,48</t>
+          <t>10,04; 20,8</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,83; 17,99</t>
+          <t>7,2; 18,25</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>28,62; 45,28</t>
+          <t>28,79; 43,99</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>46,88%</t>
+          <t>41,96%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14,92%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>11,17%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>28,6%</t>
+          <t>26,45%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>43,05%</t>
+          <t>38,86%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,28%</t>
+          <t>10,92%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,82%</t>
+          <t>11,53%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>28,13%</t>
+          <t>49,75%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>45,16%</t>
+          <t>40,45%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>17,25%</t>
+          <t>9,87%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>11,36%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>28,38%</t>
+          <t>37,13%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>35,74; 58,06</t>
+          <t>25,95; 58,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,67; 26,52</t>
+          <t>2,32; 23,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,57; 24,29</t>
+          <t>3,99; 22,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>21,21; 39,43</t>
+          <t>15,94; 40,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>31,04; 55,68</t>
+          <t>23,9; 55,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,49; 31,64</t>
+          <t>2,48; 22,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,63; 19,78</t>
+          <t>4,47; 22,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,33; 38,65</t>
+          <t>36,67; 63,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>36,82; 52,86</t>
+          <t>29,15; 51,54</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>10,8; 26,17</t>
+          <t>4,45; 19,28</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,91; 17,66</t>
+          <t>6,17; 19,63</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>21,44; 35,27</t>
+          <t>28,29; 46,56</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>39,79%</t>
+          <t>45,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,78%</t>
+          <t>17,74%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,79%</t>
+          <t>14,73%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>34,13%</t>
+          <t>32,57%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>38,26%</t>
+          <t>45,09%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,92%</t>
+          <t>24,85%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>12,54%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>33,15%</t>
+          <t>20,02%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>39,08%</t>
+          <t>45,04%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>15,77%</t>
+          <t>21,45%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>13,16%</t>
+          <t>10,37%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>33,67%</t>
+          <t>26,57%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1144,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>33,39; 46,14</t>
+          <t>33,05; 60,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,62; 18,94</t>
+          <t>7,79; 33,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,34; 19,39</t>
+          <t>5,41; 30,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>28,64; 40,71</t>
+          <t>23,13; 45,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,22; 45,53</t>
+          <t>32,05; 60,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,13; 23,57</t>
+          <t>12,53; 40,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,02; 17,78</t>
+          <t>0,0; 21,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>25,77; 39,94</t>
+          <t>10,43; 32,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>34,4; 44,24</t>
+          <t>35,76; 55,02</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>12,48; 19,8</t>
+          <t>13,76; 32,47</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,91; 17,11</t>
+          <t>4,35; 20,55</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>29,63; 38,79</t>
+          <t>18,52; 34,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>39,79%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>13,78%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>13,79%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>34,13%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>38,26%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>17,92%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>12,54%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>33,15%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>39,08%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>15,77%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>13,16%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>33,67%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>33,12; 46,62</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>9,54; 18,81</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>8,9; 18,9</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>27,69; 40,48</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>32,05; 45,45</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>13,42; 23,49</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>8,82; 18,12</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>26,1; 39,89</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>34,41; 43,63</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>12,67; 19,39</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>10,01; 16,79</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>29,12; 38,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_dic/iP16_n_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP16_n_R2-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,71; 43,74</t>
+          <t>16,34; 44,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,47; 29,14</t>
+          <t>7,6; 29,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,74; 40,74</t>
+          <t>13,56; 40,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>22,48; 51,31</t>
+          <t>24,37; 53,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,24; 41,67</t>
+          <t>15,05; 39,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,47; 31,67</t>
+          <t>10,25; 31,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,05; 30,16</t>
+          <t>7,03; 29,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>34,54; 72,46</t>
+          <t>33,72; 71,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19,56; 37,83</t>
+          <t>19,06; 38,22</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11,38; 26,16</t>
+          <t>10,98; 27,39</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12,58; 31,01</t>
+          <t>12,45; 30,01</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>30,87; 54,53</t>
+          <t>33,09; 55,84</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>30,84; 52,36</t>
+          <t>31,54; 53,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,35; 21,62</t>
+          <t>6,94; 20,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,45; 19,01</t>
+          <t>3,48; 17,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>31,92; 56,18</t>
+          <t>31,45; 54,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,92; 52,76</t>
+          <t>29,32; 52,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,23; 28,35</t>
+          <t>9,54; 28,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,28; 26,98</t>
+          <t>7,4; 25,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,31; 41,35</t>
+          <t>19,86; 42,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>33,31; 49,1</t>
+          <t>33,46; 49,59</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10,04; 20,8</t>
+          <t>9,8; 20,79</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,2; 18,25</t>
+          <t>7,28; 18,14</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>28,79; 43,99</t>
+          <t>28,36; 44,97</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>25,95; 58,62</t>
+          <t>25,37; 59,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,32; 23,31</t>
+          <t>2,35; 22,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,99; 22,57</t>
+          <t>4,07; 23,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,94; 40,23</t>
+          <t>15,76; 40,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,9; 55,84</t>
+          <t>24,06; 55,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,48; 22,28</t>
+          <t>4,51; 22,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,47; 22,76</t>
+          <t>4,18; 22,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>36,67; 63,16</t>
+          <t>36,81; 63,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>29,15; 51,54</t>
+          <t>29,44; 52,63</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,45; 19,28</t>
+          <t>4,39; 17,77</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,17; 19,63</t>
+          <t>5,64; 17,73</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>28,29; 46,56</t>
+          <t>28,27; 45,9</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>33,05; 60,29</t>
+          <t>33,53; 58,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,79; 33,01</t>
+          <t>7,57; 31,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,41; 30,7</t>
+          <t>5,65; 30,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>23,13; 45,65</t>
+          <t>22,62; 44,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>32,05; 60,98</t>
+          <t>31,44; 58,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,53; 40,39</t>
+          <t>12,69; 41,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,49</t>
+          <t>0,0; 20,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,43; 32,1</t>
+          <t>10,02; 33,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>35,76; 55,02</t>
+          <t>35,75; 53,94</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>13,76; 32,47</t>
+          <t>13,3; 31,48</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,35; 20,55</t>
+          <t>4,29; 19,44</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,52; 34,87</t>
+          <t>19,0; 34,74</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>33,12; 46,62</t>
+          <t>33,21; 46,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,54; 18,81</t>
+          <t>9,89; 18,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,9; 18,9</t>
+          <t>9,39; 19,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>27,69; 40,48</t>
+          <t>28,48; 40,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>32,05; 45,45</t>
+          <t>31,35; 45,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,42; 23,49</t>
+          <t>13,2; 23,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,82; 18,12</t>
+          <t>8,29; 17,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>26,1; 39,89</t>
+          <t>26,2; 39,89</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>34,41; 43,63</t>
+          <t>34,53; 43,54</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>12,67; 19,39</t>
+          <t>12,63; 19,62</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10,01; 16,79</t>
+          <t>10,14; 16,88</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>29,12; 38,75</t>
+          <t>29,24; 38,68</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP16_n_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP16_n_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,42 +656,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>26,48%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>19,63%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>16,18%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>51,9%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>28,78%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>16,65%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>24,78%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>36,22%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>26,48%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>19,63%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>16,18%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>52,67%</t>
+          <t>34,9%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>43,33%</t>
+          <t>41,99%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,34; 44,84</t>
+          <t>14,26; 39,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,6; 29,95</t>
+          <t>10,73; 32,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,56; 40,71</t>
+          <t>7,51; 30,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24,37; 53,42</t>
+          <t>31,61; 70,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,05; 39,27</t>
+          <t>16,55; 43,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,25; 31,83</t>
+          <t>8,03; 28,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,03; 29,5</t>
+          <t>13,34; 40,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>33,72; 71,62</t>
+          <t>21,12; 50,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19,06; 38,22</t>
+          <t>19,14; 37,16</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10,98; 27,39</t>
+          <t>11,42; 26,59</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12,45; 30,01</t>
+          <t>12,72; 30,58</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>33,09; 55,84</t>
+          <t>31,6; 54,69</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>41,02%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>17,16%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>14,57%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>27,93%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>41,15%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>12,76%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>9,21%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>42,57%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>41,02%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>17,16%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>14,57%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>29,18%</t>
+          <t>42,09%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>35,97%</t>
+          <t>35,18%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>31,54; 53,31</t>
+          <t>29,98; 52,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,94; 20,14</t>
+          <t>9,48; 27,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,48; 17,91</t>
+          <t>6,99; 24,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>31,45; 54,58</t>
+          <t>17,22; 39,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,32; 52,77</t>
+          <t>29,67; 52,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,54; 28,31</t>
+          <t>7,26; 20,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,4; 25,45</t>
+          <t>4,11; 17,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>19,86; 42,97</t>
+          <t>30,35; 53,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>33,46; 49,59</t>
+          <t>33,46; 49,09</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,8; 20,79</t>
+          <t>9,86; 20,71</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,28; 18,14</t>
+          <t>6,8; 18,32</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>28,36; 44,97</t>
+          <t>26,91; 43,37</t>
         </is>
       </c>
     </row>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>38,86%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>10,92%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>11,53%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>48,97%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>41,96%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>8,73%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>11,17%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>26,45%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>38,86%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>10,92%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>11,53%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>49,75%</t>
+          <t>25,66%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>37,13%</t>
+          <t>36,05%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>25,37; 59,4</t>
+          <t>22,68; 55,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,35; 22,72</t>
+          <t>3,86; 23,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,07; 23,28</t>
+          <t>4,76; 22,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,76; 40,67</t>
+          <t>35,67; 64,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>24,06; 55,59</t>
+          <t>26,88; 57,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,51; 22,51</t>
+          <t>2,37; 21,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,18; 22,91</t>
+          <t>4,15; 23,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>36,81; 63,25</t>
+          <t>14,06; 38,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>29,44; 52,63</t>
+          <t>29,94; 52,88</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,39; 17,77</t>
+          <t>4,46; 19,19</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,64; 17,73</t>
+          <t>5,97; 20,22</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>28,27; 45,9</t>
+          <t>26,71; 45,66</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>45,09%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>24,85%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5,87%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>14,31%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>45,0%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>17,74%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>14,73%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>32,57%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>45,09%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>24,85%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>5,87%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>20,02%</t>
+          <t>32,37%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>26,57%</t>
+          <t>22,5%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>33,53; 58,69</t>
+          <t>32,5; 61,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,57; 31,63</t>
+          <t>11,48; 40,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,65; 30,82</t>
+          <t>0,0; 19,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,62; 44,67</t>
+          <t>5,2; 27,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,44; 58,91</t>
+          <t>33,19; 57,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,69; 41,76</t>
+          <t>7,45; 33,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,32</t>
+          <t>5,63; 31,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,02; 33,19</t>
+          <t>21,82; 44,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>35,75; 53,94</t>
+          <t>36,24; 55,39</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>13,3; 31,48</t>
+          <t>13,24; 31,31</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,29; 19,44</t>
+          <t>4,39; 19,74</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>19,0; 34,74</t>
+          <t>12,57; 31,9</t>
         </is>
       </c>
     </row>
@@ -1216,42 +1216,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>38,26%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>17,92%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>12,54%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>28,51%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>39,79%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>13,78%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>13,79%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>34,13%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>38,26%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>17,92%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>12,54%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>33,15%</t>
+          <t>33,59%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>33,67%</t>
+          <t>31,08%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>33,21; 46,54</t>
+          <t>31,22; 45,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,89; 18,8</t>
+          <t>13,13; 23,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,39; 19,31</t>
+          <t>8,02; 17,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>28,48; 40,5</t>
+          <t>16,9; 36,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>31,35; 45,21</t>
+          <t>33,39; 46,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,2; 23,25</t>
+          <t>9,62; 18,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,29; 17,6</t>
+          <t>9,34; 19,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>26,2; 39,89</t>
+          <t>28,11; 40,3</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>34,53; 43,54</t>
+          <t>34,4; 44,24</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>12,63; 19,62</t>
+          <t>12,48; 19,8</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10,14; 16,88</t>
+          <t>9,91; 17,11</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>29,24; 38,68</t>
+          <t>24,44; 36,55</t>
         </is>
       </c>
     </row>
